--- a/matlab/statistics/rawdataAnovaSharpnessDiffThreshold.xlsx
+++ b/matlab/statistics/rawdataAnovaSharpnessDiffThreshold.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\thesis\matlab\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93727F0C-8B71-4C42-B908-7246AF553FE5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3570C5A8-76B1-427A-BCFF-C8A687D48251}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150" xr2:uid="{7AF3A03D-CE9E-409E-9E62-EADF04CEEE14}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>Loudness NoObject</t>
-  </si>
-  <si>
     <t>DiffThreshold</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>SharpnessThreshold</t>
+  </si>
+  <si>
+    <t>Sharpness NoObject</t>
   </si>
 </sst>
 </file>
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D8E72B-909E-4713-9154-9D34E1C8C58B}">
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -458,16 +458,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -475,19 +475,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
       </c>
       <c r="F2">
-        <v>1.9858056112224447</v>
+        <v>1.9715841683366733</v>
       </c>
       <c r="G2" s="2">
         <v>1.9858056112224447</v>
@@ -505,19 +505,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1">
         <v>5</v>
       </c>
       <c r="F3">
-        <v>1.9952865731462925</v>
+        <v>1.9553667334669336</v>
       </c>
       <c r="G3" s="2">
         <v>1.9952865731462925</v>
@@ -535,19 +535,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1">
         <v>5</v>
       </c>
       <c r="F4">
-        <v>2.0249769539078155</v>
+        <v>1.974578156312625</v>
       </c>
       <c r="G4" s="2">
         <v>2.0249769539078155</v>
@@ -565,19 +565,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1">
         <v>5</v>
       </c>
       <c r="F5">
-        <v>2.003769539078156</v>
+        <v>1.9740791583166333</v>
       </c>
       <c r="G5" s="2">
         <v>2.003769539078156</v>
@@ -595,19 +595,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
       </c>
       <c r="F6">
-        <v>1.9788196392785571</v>
+        <v>1.9453867735470942</v>
       </c>
       <c r="G6" s="2">
         <v>1.9788196392785571</v>
@@ -625,19 +625,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>1.9810651302605213</v>
+        <v>1.9730811623246494</v>
       </c>
       <c r="G7" s="2">
         <v>1.9810651302605213</v>
@@ -655,19 +655,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>
       </c>
       <c r="F8">
-        <v>2.1377505010020039</v>
+        <v>2.0566633266533065</v>
       </c>
       <c r="G8" s="2">
         <v>2.1377505010020039</v>
@@ -685,19 +685,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1">
         <v>5</v>
       </c>
       <c r="F9">
-        <v>2.0214839679358718</v>
+        <v>1.9710851703406813</v>
       </c>
       <c r="G9" s="2">
         <v>2.0214839679358718</v>
@@ -715,13 +715,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="1">
         <v>5</v>
@@ -745,19 +745,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="1">
         <v>5</v>
       </c>
       <c r="F11">
-        <v>2.0007755511022038</v>
+        <v>1.9655961923847696</v>
       </c>
       <c r="G11" s="2">
         <v>2.0007755511022038</v>
@@ -775,19 +775,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="1">
         <v>5</v>
       </c>
       <c r="F12">
-        <v>2.052</v>
+        <v>2.136503006012024</v>
       </c>
       <c r="G12" s="2">
         <v>2.052</v>
@@ -805,19 +805,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="1">
         <v>5</v>
       </c>
       <c r="F13">
-        <v>2.0082605210420841</v>
+        <v>1.9618537074148297</v>
       </c>
       <c r="G13" s="2">
         <v>2.0082605210420841</v>
@@ -835,19 +835,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1">
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
       </c>
       <c r="F14">
-        <v>2.0930901803607211</v>
+        <v>2.0120030060120242</v>
       </c>
       <c r="G14" s="2">
         <v>2.0930901803607211</v>
@@ -865,19 +865,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="1">
         <v>5</v>
       </c>
       <c r="F15">
-        <v>2.0601563126252507</v>
+        <v>1.9980310621242483</v>
       </c>
       <c r="G15" s="2">
         <v>2.0601563126252507</v>
@@ -895,19 +895,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1">
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" s="1">
         <v>5</v>
       </c>
       <c r="F16">
-        <v>2.0476813627254509</v>
+        <v>1.9932905811623245</v>
       </c>
       <c r="G16" s="2">
         <v>2.0476813627254509</v>
@@ -925,19 +925,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1">
         <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
       </c>
       <c r="F17">
-        <v>2.0481803607214428</v>
+        <v>2.0326044947036932</v>
       </c>
       <c r="G17" s="2">
         <v>2.0481803607214428</v>
@@ -955,19 +955,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1">
         <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="1">
         <v>5</v>
       </c>
       <c r="F18">
-        <v>2.0115040080160318</v>
+        <v>1.9603567134268536</v>
       </c>
       <c r="G18" s="2">
         <v>2.0115040080160318</v>
@@ -985,19 +985,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1">
         <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="1">
         <v>5</v>
       </c>
       <c r="F19">
-        <v>2.1023216432865728</v>
+        <v>2.0244779559118236</v>
       </c>
       <c r="G19" s="2">
         <v>2.1023216432865728</v>
@@ -1015,19 +1015,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1">
         <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" s="1">
         <v>5</v>
       </c>
       <c r="F20">
-        <v>1.9783206412825656</v>
+        <v>1.9655961923847696</v>
       </c>
       <c r="G20" s="2">
         <v>1.9783206412825656</v>
@@ -1045,13 +1045,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="1">
         <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
@@ -1075,19 +1075,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" s="1">
         <v>50</v>
       </c>
       <c r="F22">
-        <v>1.9906452905811631</v>
+        <v>1.9604138276553105</v>
       </c>
       <c r="G22" s="2">
         <v>1.9906452905811631</v>
@@ -1105,19 +1105,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" s="1">
         <v>50</v>
       </c>
       <c r="F23">
-        <v>1.9935881763527055</v>
+        <v>1.947037074148297</v>
       </c>
       <c r="G23" s="2">
         <v>1.9935881763527055</v>
@@ -1135,19 +1135,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" s="1">
         <v>50</v>
       </c>
       <c r="F24">
-        <v>1.9911803607214438</v>
+        <v>1.956935871743487</v>
       </c>
       <c r="G24" s="2">
         <v>1.9911803607214438</v>
@@ -1165,19 +1165,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1">
         <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" s="1">
         <v>50</v>
       </c>
       <c r="F25">
-        <v>2.0045571142284575</v>
+        <v>1.9612164328657316</v>
       </c>
       <c r="G25" s="2">
         <v>2.0045571142284575</v>
@@ -1195,19 +1195,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" s="1">
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" s="1">
         <v>50</v>
       </c>
       <c r="F26">
-        <v>1.9831543086172354</v>
+        <v>1.9662995991983969</v>
       </c>
       <c r="G26" s="2">
         <v>1.9831543086172354</v>
@@ -1225,19 +1225,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" s="1">
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" s="1">
         <v>50</v>
       </c>
       <c r="F27">
-        <v>1.991715430861724</v>
+        <v>1.9671022044088176</v>
       </c>
       <c r="G27" s="2">
         <v>1.991715430861724</v>
@@ -1255,19 +1255,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="1">
         <v>7</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" s="1">
         <v>50</v>
       </c>
       <c r="F28">
-        <v>1.9515851703406801</v>
+        <v>1.9272394789579161</v>
       </c>
       <c r="G28" s="2">
         <v>1.9515851703406801</v>
@@ -1285,19 +1285,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" s="1">
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" s="1">
         <v>50</v>
       </c>
       <c r="F29">
-        <v>2.0446873747494987</v>
+        <v>1.986899799599199</v>
       </c>
       <c r="G29" s="2">
         <v>2.0446873747494987</v>
@@ -1315,19 +1315,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" s="1">
         <v>9</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" s="1">
         <v>50</v>
       </c>
       <c r="F30">
-        <v>2.083212424849699</v>
+        <v>2.0050921843687384</v>
       </c>
       <c r="G30" s="2">
         <v>2.083212424849699</v>
@@ -1345,19 +1345,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" s="1">
         <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" s="1">
         <v>50</v>
       </c>
       <c r="F31">
-        <v>2.0026843687374751</v>
+        <v>1.9566683366733468</v>
       </c>
       <c r="G31" s="2">
         <v>2.0026843687374751</v>
@@ -1375,19 +1375,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" s="1">
         <v>11</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32" s="1">
         <v>50</v>
       </c>
       <c r="F32">
-        <v>2.003219438877756</v>
+        <v>1.9566683366733468</v>
       </c>
       <c r="G32" s="2">
         <v>2.003219438877756</v>
@@ -1405,19 +1405,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" s="1">
         <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33" s="1">
         <v>50</v>
       </c>
       <c r="F33">
-        <v>1.9802114228456906</v>
+        <v>1.9430240480961927</v>
       </c>
       <c r="G33" s="2">
         <v>1.9802114228456906</v>
@@ -1435,19 +1435,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34" s="1">
         <v>13</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34" s="1">
         <v>50</v>
       </c>
       <c r="F34">
-        <v>1.9834218436873752</v>
+        <v>1.9692424849699399</v>
       </c>
       <c r="G34" s="2">
         <v>1.9834218436873752</v>
@@ -1465,19 +1465,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" s="1">
         <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35" s="1">
         <v>50</v>
       </c>
       <c r="F35">
-        <v>1.993588176352705</v>
+        <v>1.9443617234468944</v>
       </c>
       <c r="G35" s="2">
         <v>1.993588176352705</v>
@@ -1495,19 +1495,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" s="1">
         <v>15</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E36" s="1">
         <v>50</v>
       </c>
       <c r="F36">
-        <v>1.9842244488977951</v>
+        <v>1.9486422845691387</v>
       </c>
       <c r="G36" s="2">
         <v>1.9842244488977951</v>
@@ -1525,19 +1525,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" s="1">
         <v>16</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E37" s="1">
         <v>50</v>
       </c>
       <c r="F37">
-        <v>2.0053597194388781</v>
+        <v>1.9593436873747498</v>
       </c>
       <c r="G37" s="2">
         <v>2.0053597194388781</v>
@@ -1555,19 +1555,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38" s="1">
         <v>17</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E38" s="1">
         <v>50</v>
       </c>
       <c r="F38">
-        <v>2.0141883767535065</v>
+        <v>1.9775360721442887</v>
       </c>
       <c r="G38" s="2">
         <v>2.0141883767535065</v>
@@ -1585,19 +1585,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C39" s="1">
         <v>18</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39" s="1">
         <v>50</v>
       </c>
       <c r="F39">
-        <v>2.110768537074148</v>
+        <v>2.0267625250500991</v>
       </c>
       <c r="G39" s="2">
         <v>2.110768537074148</v>
@@ -1615,19 +1615,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C40" s="1">
         <v>19</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40" s="1">
         <v>50</v>
       </c>
       <c r="F40">
-        <v>1.9654969939879767</v>
+        <v>1.9374058116232467</v>
       </c>
       <c r="G40" s="2">
         <v>1.9654969939879767</v>
@@ -1645,13 +1645,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C41" s="1">
         <v>20</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E41" s="1">
         <v>50</v>
@@ -1675,19 +1675,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42" s="1">
         <v>500</v>
       </c>
       <c r="F42">
-        <v>1.9865430861723448</v>
+        <v>1.9484509018036071</v>
       </c>
       <c r="G42" s="2">
         <v>1.9865430861723448</v>
@@ -1705,19 +1705,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" s="1">
         <v>2</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43" s="1">
         <v>500</v>
       </c>
       <c r="F43">
-        <v>1.9862545090180364</v>
+        <v>1.9519138276553107</v>
       </c>
       <c r="G43" s="2">
         <v>1.9862545090180364</v>
@@ -1735,19 +1735,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44" s="1">
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44" s="1">
         <v>500</v>
       </c>
       <c r="F44">
-        <v>2.032426853707415</v>
+        <v>1.9481623246492985</v>
       </c>
       <c r="G44" s="2">
         <v>2.032426853707415</v>
@@ -1765,19 +1765,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" s="1">
         <v>4</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45" s="1">
         <v>500</v>
       </c>
       <c r="F45">
-        <v>1.9790400801603207</v>
+        <v>1.9510480961923848</v>
       </c>
       <c r="G45" s="2">
         <v>1.9790400801603207</v>
@@ -1795,19 +1795,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" s="1">
         <v>5</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46" s="1">
         <v>500</v>
       </c>
       <c r="F46">
-        <v>1.9738456913827653</v>
+        <v>1.9429679358717438</v>
       </c>
       <c r="G46" s="2">
         <v>1.9738456913827653</v>
@@ -1825,19 +1825,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" s="1">
         <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E47" s="1">
         <v>500</v>
       </c>
       <c r="F47">
-        <v>1.9879859719438884</v>
+        <v>1.9752885771543085</v>
       </c>
       <c r="G47" s="2">
         <v>1.9879859719438884</v>
@@ -1855,19 +1855,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" s="1">
         <v>7</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E48" s="1">
         <v>500</v>
       </c>
       <c r="F48">
-        <v>1.9770200400801605</v>
+        <v>1.9444108216432869</v>
       </c>
       <c r="G48" s="2">
         <v>1.9770200400801605</v>
@@ -1885,19 +1885,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" s="1">
         <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E49" s="1">
         <v>500</v>
       </c>
       <c r="F49">
-        <v>2.065324649298597</v>
+        <v>1.9891402805611225</v>
       </c>
       <c r="G49" s="2">
         <v>2.065324649298597</v>
@@ -1915,19 +1915,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" s="1">
         <v>9</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E50" s="1">
         <v>500</v>
       </c>
       <c r="F50">
-        <v>1.9885631262525043</v>
+        <v>1.9475851703406817</v>
       </c>
       <c r="G50" s="2">
         <v>1.9885631262525043</v>
@@ -1945,19 +1945,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" s="1">
         <v>10</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E51" s="1">
         <v>500</v>
       </c>
       <c r="F51">
-        <v>1.9963547094188376</v>
+        <v>1.9674969939879761</v>
       </c>
       <c r="G51" s="2">
         <v>1.9963547094188376</v>
@@ -1975,19 +1975,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C52" s="1">
         <v>11</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E52" s="1">
         <v>500</v>
       </c>
       <c r="F52">
-        <v>1.9914488977955913</v>
+        <v>1.9400821643286574</v>
       </c>
       <c r="G52" s="2">
         <v>1.9914488977955913</v>
@@ -2005,19 +2005,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C53" s="1">
         <v>12</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E53" s="1">
         <v>500</v>
       </c>
       <c r="F53">
-        <v>1.9969318637274549</v>
+        <v>1.9585511022044089</v>
       </c>
       <c r="G53" s="2">
         <v>1.9969318637274549</v>
@@ -2035,19 +2035,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C54" s="1">
         <v>13</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E54" s="1">
         <v>500</v>
       </c>
       <c r="F54">
-        <v>1.9917374749498999</v>
+        <v>1.9718256513026051</v>
       </c>
       <c r="G54" s="2">
         <v>1.9917374749498999</v>
@@ -2065,19 +2065,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C55" s="1">
         <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E55" s="1">
         <v>500</v>
       </c>
       <c r="F55">
-        <v>1.9703827655310626</v>
+        <v>1.9198817635270542</v>
       </c>
       <c r="G55" s="2">
         <v>1.9703827655310626</v>
@@ -2095,19 +2095,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C56" s="1">
         <v>15</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E56" s="1">
         <v>500</v>
       </c>
       <c r="F56">
-        <v>2.0067434869739476</v>
+        <v>1.9787515030060123</v>
       </c>
       <c r="G56" s="2">
         <v>2.0067434869739476</v>
@@ -2125,19 +2125,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C57" s="1">
         <v>16</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E57" s="1">
         <v>500</v>
       </c>
       <c r="F57">
-        <v>1.9911603206412829</v>
+        <v>1.9322905811623241</v>
       </c>
       <c r="G57" s="2">
         <v>1.9911603206412829</v>
@@ -2155,19 +2155,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C58" s="1">
         <v>17</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E58" s="1">
         <v>500</v>
       </c>
       <c r="F58">
-        <v>2.0044348697394789</v>
+        <v>1.9611482965931868</v>
       </c>
       <c r="G58" s="2">
         <v>2.0044348697394789</v>
@@ -2185,19 +2185,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C59" s="1">
         <v>18</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E59" s="1">
         <v>500</v>
       </c>
       <c r="F59">
-        <v>1.9724028056112226</v>
+        <v>1.9276733466933866</v>
       </c>
       <c r="G59" s="2">
         <v>1.9724028056112226</v>
@@ -2215,19 +2215,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C60" s="1">
         <v>19</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E60" s="1">
         <v>500</v>
       </c>
       <c r="F60">
-        <v>1.9784629258517035</v>
+        <v>1.9559539078156312</v>
       </c>
       <c r="G60" s="2">
         <v>1.9784629258517035</v>
@@ -2245,19 +2245,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C61" s="1">
         <v>20</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E61" s="1">
         <v>500</v>
       </c>
       <c r="F61">
-        <v>2.0840821643286578</v>
+        <v>2.0053006012024044</v>
       </c>
       <c r="G61" s="2">
         <v>2.0840821643286578</v>
@@ -2275,19 +2275,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E62" s="1">
         <v>5</v>
       </c>
       <c r="F62">
-        <v>2.0266392785571137</v>
+        <v>2.0159679358717426</v>
       </c>
       <c r="G62" s="2">
         <v>2.0266392785571137</v>
@@ -2305,19 +2305,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" s="1">
         <v>2</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E63" s="1">
         <v>5</v>
       </c>
       <c r="F63">
-        <v>2.0216292585170348</v>
+        <v>2.0120100200400799</v>
       </c>
       <c r="G63" s="2">
         <v>2.0216292585170348</v>
@@ -2335,19 +2335,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64" s="1">
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E64" s="1">
         <v>5</v>
       </c>
       <c r="F64">
-        <v>2.021779559118237</v>
+        <v>2.0117595190380761</v>
       </c>
       <c r="G64" s="2">
         <v>2.021779559118237</v>
@@ -2365,19 +2365,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" s="1">
         <v>4</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E65" s="1">
         <v>5</v>
       </c>
       <c r="F65">
-        <v>2.0187234468937874</v>
+        <v>2.0090040080160314</v>
       </c>
       <c r="G65" s="2">
         <v>2.0187234468937874</v>
@@ -2395,19 +2395,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66" s="1">
         <v>5</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E66" s="1">
         <v>5</v>
       </c>
       <c r="F66">
-        <v>2.0252364729458914</v>
+        <v>2.0156172344689374</v>
       </c>
       <c r="G66" s="2">
         <v>2.0252364729458914</v>
@@ -2425,19 +2425,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" s="1">
         <v>6</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E67" s="1">
         <v>5</v>
       </c>
       <c r="F67">
-        <v>2.0180220440881764</v>
+        <v>2.0073006012024051</v>
       </c>
       <c r="G67" s="2">
         <v>2.0180220440881764</v>
@@ -2455,19 +2455,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68" s="1">
         <v>7</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E68" s="1">
         <v>5</v>
       </c>
       <c r="F68">
-        <v>2.0216292585170343</v>
+        <v>2.0117094188376754</v>
       </c>
       <c r="G68" s="2">
         <v>2.0216292585170343</v>
@@ -2485,19 +2485,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C69" s="1">
         <v>8</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E69" s="1">
         <v>5</v>
       </c>
       <c r="F69">
-        <v>2.0230821643286578</v>
+        <v>2.0143146292585175</v>
       </c>
       <c r="G69" s="2">
         <v>2.0230821643286578</v>
@@ -2515,13 +2515,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C70" s="1">
         <v>9</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E70" s="1">
         <v>5</v>
@@ -2545,19 +2545,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71" s="1">
         <v>10</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E71" s="1">
         <v>5</v>
       </c>
       <c r="F71">
-        <v>2.0266893787575149</v>
+        <v>2.0143146292585175</v>
       </c>
       <c r="G71" s="2">
         <v>2.0266893787575149</v>
@@ -2575,19 +2575,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C72" s="1">
         <v>11</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E72" s="1">
         <v>5</v>
       </c>
       <c r="F72">
-        <v>2.0284929859719445</v>
+        <v>2.018773547094189</v>
       </c>
       <c r="G72" s="2">
         <v>2.0284929859719445</v>
@@ -2605,19 +2605,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C73" s="1">
         <v>12</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E73" s="1">
         <v>5</v>
       </c>
       <c r="F73">
-        <v>2.0244348697394789</v>
+        <v>2.0129118236472947</v>
       </c>
       <c r="G73" s="2">
         <v>2.0244348697394789</v>
@@ -2635,19 +2635,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C74" s="1">
         <v>13</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E74" s="1">
         <v>5</v>
       </c>
       <c r="F74">
-        <v>2.0234328657314626</v>
+        <v>2.0139639278557118</v>
       </c>
       <c r="G74" s="2">
         <v>2.0234328657314626</v>
@@ -2665,19 +2665,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C75" s="1">
         <v>14</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E75" s="1">
         <v>5</v>
       </c>
       <c r="F75">
-        <v>2.03019639278557</v>
+        <v>2.0225811623246486</v>
       </c>
       <c r="G75" s="2">
         <v>2.03019639278557</v>
@@ -2695,19 +2695,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C76" s="1">
         <v>15</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E76" s="1">
         <v>5</v>
       </c>
       <c r="F76">
-        <v>2.0206773547094183</v>
+        <v>2.0088537074148292</v>
       </c>
       <c r="G76" s="2">
         <v>2.0206773547094183</v>
@@ -2725,13 +2725,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C77" s="1">
         <v>16</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E77" s="1">
         <v>5</v>
@@ -2755,13 +2755,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C78" s="1">
         <v>17</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E78" s="1">
         <v>5</v>
@@ -2785,19 +2785,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C79" s="1">
         <v>18</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E79" s="1">
         <v>5</v>
       </c>
       <c r="F79">
-        <v>2.032</v>
+        <v>2.0318997995991985</v>
       </c>
       <c r="G79" s="2">
         <v>2.032</v>
@@ -2815,19 +2815,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C80" s="1">
         <v>19</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E80" s="1">
         <v>5</v>
       </c>
       <c r="F80">
-        <v>2.025687374749499</v>
+        <v>2.0155170340681359</v>
       </c>
       <c r="G80" s="2">
         <v>2.025687374749499</v>
@@ -2845,13 +2845,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C81" s="1">
         <v>20</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E81" s="1">
         <v>5</v>
@@ -2875,19 +2875,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C82" s="1">
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E82" s="1">
         <v>50</v>
       </c>
       <c r="F82">
-        <v>1.9431342685370745</v>
+        <v>1.9349098196392787</v>
       </c>
       <c r="G82" s="2">
         <v>1.9431342685370745</v>
@@ -2905,19 +2905,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C83" s="1">
         <v>2</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E83" s="1">
         <v>50</v>
       </c>
       <c r="F83">
-        <v>1.9457995991983963</v>
+        <v>1.9380320641282562</v>
       </c>
       <c r="G83" s="2">
         <v>1.9457995991983963</v>
@@ -2935,19 +2935,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C84" s="1">
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E84" s="1">
         <v>50</v>
       </c>
       <c r="F84">
-        <v>1.9461042084168336</v>
+        <v>1.9371943887775553</v>
       </c>
       <c r="G84" s="2">
         <v>1.9461042084168336</v>
@@ -2965,19 +2965,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85" s="1">
         <v>4</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E85" s="1">
         <v>50</v>
       </c>
       <c r="F85">
-        <v>1.9306452905811622</v>
+        <v>1.9238677354709419</v>
       </c>
       <c r="G85" s="2">
         <v>1.9306452905811622</v>
@@ -2995,19 +2995,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C86" s="1">
         <v>5</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E86" s="1">
         <v>50</v>
       </c>
       <c r="F86">
-        <v>1.946104208416833</v>
+        <v>1.9394028056112222</v>
       </c>
       <c r="G86" s="2">
         <v>1.946104208416833</v>
@@ -3025,19 +3025,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87" s="1">
         <v>6</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E87" s="1">
         <v>50</v>
       </c>
       <c r="F87">
-        <v>1.9383366733466938</v>
+        <v>1.929503006012024</v>
       </c>
       <c r="G87" s="2">
         <v>1.9383366733466938</v>
@@ -3055,19 +3055,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" s="1">
         <v>7</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E88" s="1">
         <v>50</v>
       </c>
       <c r="F88">
-        <v>1.9346813627254507</v>
+        <v>1.9277515030060119</v>
       </c>
       <c r="G88" s="2">
         <v>1.9346813627254507</v>
@@ -3085,19 +3085,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C89" s="1">
         <v>8</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E89" s="1">
         <v>50</v>
       </c>
       <c r="F89">
-        <v>1.9483887775551103</v>
+        <v>1.9392505010020038</v>
       </c>
       <c r="G89" s="2">
         <v>1.9483887775551103</v>
@@ -3115,19 +3115,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C90" s="1">
         <v>9</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E90" s="1">
         <v>50</v>
       </c>
       <c r="F90">
-        <v>1.9579078156312628</v>
+        <v>1.9530340681362723</v>
       </c>
       <c r="G90" s="2">
         <v>1.9579078156312628</v>
@@ -3145,19 +3145,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C91" s="1">
         <v>10</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E91" s="1">
         <v>50</v>
       </c>
       <c r="F91">
-        <v>1.9532625250501001</v>
+        <v>1.9359759519038076</v>
       </c>
       <c r="G91" s="2">
         <v>1.9532625250501001</v>
@@ -3175,19 +3175,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C92" s="1">
         <v>11</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E92" s="1">
         <v>50</v>
       </c>
       <c r="F92">
-        <v>1.9533386773547097</v>
+        <v>1.945418837675351</v>
       </c>
       <c r="G92" s="2">
         <v>1.9533386773547097</v>
@@ -3205,19 +3205,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C93" s="1">
         <v>12</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E93" s="1">
         <v>50</v>
       </c>
       <c r="F93">
-        <v>1.9403166332665327</v>
+        <v>1.9336913827655311</v>
       </c>
       <c r="G93" s="2">
         <v>1.9403166332665327</v>
@@ -3235,19 +3235,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C94" s="1">
         <v>13</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E94" s="1">
         <v>50</v>
       </c>
       <c r="F94">
-        <v>1.9430581162324649</v>
+        <v>1.93376753507014</v>
       </c>
       <c r="G94" s="2">
         <v>1.9430581162324649</v>
@@ -3265,19 +3265,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C95" s="1">
         <v>14</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E95" s="1">
         <v>50</v>
       </c>
       <c r="F95">
-        <v>1.9511302605210419</v>
+        <v>1.9426773547094187</v>
       </c>
       <c r="G95" s="2">
         <v>1.9511302605210419</v>
@@ -3295,19 +3295,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C96" s="1">
         <v>15</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E96" s="1">
         <v>50</v>
       </c>
       <c r="F96">
-        <v>1.9462565130260518</v>
+        <v>1.9286653306613226</v>
       </c>
       <c r="G96" s="2">
         <v>1.9462565130260518</v>
@@ -3325,19 +3325,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C97" s="1">
         <v>16</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E97" s="1">
         <v>50</v>
       </c>
       <c r="F97">
-        <v>1.9611062124248497</v>
+        <v>1.9503687374749497</v>
       </c>
       <c r="G97" s="2">
         <v>1.9611062124248497</v>
@@ -3355,19 +3355,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C98" s="1">
         <v>17</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E98" s="1">
         <v>50</v>
       </c>
       <c r="F98">
-        <v>1.952805611222445</v>
+        <v>1.9397835671342685</v>
       </c>
       <c r="G98" s="2">
         <v>1.952805611222445</v>
@@ -3385,19 +3385,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C99" s="1">
         <v>18</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E99" s="1">
         <v>50</v>
       </c>
       <c r="F99">
-        <v>1.9553947895791586</v>
+        <v>1.9467895791583163</v>
       </c>
       <c r="G99" s="2">
         <v>1.9553947895791586</v>
@@ -3415,19 +3415,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C100" s="1">
         <v>19</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E100" s="1">
         <v>50</v>
       </c>
       <c r="F100">
-        <v>1.948921843687375</v>
+        <v>1.9414589178356714</v>
       </c>
       <c r="G100" s="2">
         <v>1.948921843687375</v>
@@ -3445,13 +3445,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C101" s="1">
         <v>20</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E101" s="1">
         <v>50</v>
@@ -3475,19 +3475,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C102" s="1">
         <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E102" s="1">
         <v>500</v>
       </c>
       <c r="F102">
-        <v>1.9900701402805612</v>
+        <v>1.9723246492985971</v>
       </c>
       <c r="G102" s="2">
         <v>1.9900701402805612</v>
@@ -3505,19 +3505,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C103" s="1">
         <v>2</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E103" s="1">
         <v>500</v>
       </c>
       <c r="F103">
-        <v>1.9693927855711428</v>
+        <v>1.9588997995991986</v>
       </c>
       <c r="G103" s="2">
         <v>1.9693927855711428</v>
@@ -3535,19 +3535,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C104" s="1">
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E104" s="1">
         <v>500</v>
       </c>
       <c r="F104">
-        <v>1.98898997995992</v>
+        <v>1.9681583166332668</v>
       </c>
       <c r="G104" s="2">
         <v>1.98898997995992</v>
@@ -3565,19 +3565,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C105" s="1">
         <v>4</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E105" s="1">
         <v>500</v>
       </c>
       <c r="F105">
-        <v>1.9812745490981962</v>
+        <v>1.9664609218436873</v>
       </c>
       <c r="G105" s="2">
         <v>1.9812745490981962</v>
@@ -3595,19 +3595,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C106" s="1">
         <v>5</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E106" s="1">
         <v>500</v>
       </c>
       <c r="F106">
-        <v>1.9661523046092186</v>
+        <v>1.9562765531062123</v>
       </c>
       <c r="G106" s="2">
         <v>1.9661523046092186</v>
@@ -3625,19 +3625,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C107" s="1">
         <v>6</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E107" s="1">
         <v>500</v>
       </c>
       <c r="F107">
-        <v>1.9584368737474953</v>
+        <v>1.9527274549098197</v>
       </c>
       <c r="G107" s="2">
         <v>1.9584368737474953</v>
@@ -3655,19 +3655,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C108" s="1">
         <v>7</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E108" s="1">
         <v>500</v>
       </c>
       <c r="F108">
-        <v>1.9706272545090184</v>
+        <v>1.9607515030060121</v>
       </c>
       <c r="G108" s="2">
         <v>1.9706272545090184</v>
@@ -3685,19 +3685,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C109" s="1">
         <v>8</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E109" s="1">
         <v>500</v>
       </c>
       <c r="F109">
-        <v>1.9771082164328657</v>
+        <v>1.9627575150300602</v>
       </c>
       <c r="G109" s="2">
         <v>1.9771082164328657</v>
@@ -3715,19 +3715,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C110" s="1">
         <v>9</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E110" s="1">
         <v>500</v>
       </c>
       <c r="F110">
-        <v>1.9769539078156311</v>
+        <v>1.9627575150300602</v>
       </c>
       <c r="G110" s="2">
         <v>1.9769539078156311</v>
@@ -3745,19 +3745,19 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C111" s="1">
         <v>10</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E111" s="1">
         <v>500</v>
       </c>
       <c r="F111">
-        <v>2.0116733466933865</v>
+        <v>1.9859038076152304</v>
       </c>
       <c r="G111" s="2">
         <v>2.0116733466933865</v>
@@ -3775,19 +3775,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C112" s="1">
         <v>11</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E112" s="1">
         <v>500</v>
       </c>
       <c r="F112">
-        <v>1.9916132264529056</v>
+        <v>1.9720160320641285</v>
       </c>
       <c r="G112" s="2">
         <v>1.9916132264529056</v>
@@ -3805,19 +3805,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C113" s="1">
         <v>12</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E113" s="1">
         <v>500</v>
       </c>
       <c r="F113">
-        <v>1.9996372745490987</v>
+        <v>1.9842064128256514</v>
       </c>
       <c r="G113" s="2">
         <v>1.9996372745490987</v>
@@ -3835,19 +3835,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C114" s="1">
         <v>13</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E114" s="1">
         <v>500</v>
       </c>
       <c r="F114">
-        <v>1.9730961923847696</v>
+        <v>1.9630661322645291</v>
       </c>
       <c r="G114" s="2">
         <v>1.9730961923847696</v>
@@ -3865,19 +3865,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C115" s="1">
         <v>14</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E115" s="1">
         <v>500</v>
       </c>
       <c r="F115">
-        <v>1.9720160320641289</v>
+        <v>1.9596713426853709</v>
       </c>
       <c r="G115" s="2">
         <v>1.9720160320641289</v>
@@ -3895,19 +3895,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C116" s="1">
         <v>15</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E116" s="1">
         <v>500</v>
       </c>
       <c r="F116">
-        <v>1.9695470941883773</v>
+        <v>1.9602885771543086</v>
       </c>
       <c r="G116" s="2">
         <v>1.9695470941883773</v>
@@ -3925,19 +3925,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C117" s="1">
         <v>16</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E117" s="1">
         <v>500</v>
       </c>
       <c r="F117">
-        <v>1.9690841683366735</v>
+        <v>1.9592084168336672</v>
       </c>
       <c r="G117" s="2">
         <v>1.9690841683366735</v>
@@ -3955,19 +3955,19 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C118" s="1">
         <v>17</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E118" s="1">
         <v>500</v>
       </c>
       <c r="F118">
-        <v>2.0113647294589176</v>
+        <v>1.9840521042084169</v>
       </c>
       <c r="G118" s="2">
         <v>2.0113647294589176</v>
@@ -3985,19 +3985,19 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C119" s="1">
         <v>18</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E119" s="1">
         <v>500</v>
       </c>
       <c r="F119">
-        <v>2.0024148296593185</v>
+        <v>1.9892985971943891</v>
       </c>
       <c r="G119" s="2">
         <v>2.0024148296593185</v>
@@ -4015,19 +4015,19 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C120" s="1">
         <v>19</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E120" s="1">
         <v>500</v>
       </c>
       <c r="F120">
-        <v>1.9852865731462932</v>
+        <v>1.9707815631262526</v>
       </c>
       <c r="G120" s="2">
         <v>1.9852865731462932</v>
@@ -4045,19 +4045,19 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C121" s="1">
         <v>20</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E121" s="1">
         <v>500</v>
       </c>
       <c r="F121">
-        <v>2.0828096192384771</v>
+        <v>2.0374428857715432</v>
       </c>
       <c r="G121" s="2">
         <v>2.0828096192384771</v>

--- a/matlab/statistics/rawdataAnovaSharpnessDiffThreshold.xlsx
+++ b/matlab/statistics/rawdataAnovaSharpnessDiffThreshold.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\thesis\matlab\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3570C5A8-76B1-427A-BCFF-C8A687D48251}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0E6E99-E6E5-4C9F-B616-74C1039879DA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150" xr2:uid="{7AF3A03D-CE9E-409E-9E62-EADF04CEEE14}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F2" sqref="F2:F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -487,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>1.9715841683366733</v>
+        <v>1.9858056112224447</v>
       </c>
       <c r="G2" s="2">
         <v>1.9858056112224447</v>
@@ -517,7 +517,7 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>1.9553667334669336</v>
+        <v>1.9952865731462925</v>
       </c>
       <c r="G3" s="2">
         <v>1.9952865731462925</v>
@@ -547,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="F4">
-        <v>1.974578156312625</v>
+        <v>2.0249769539078155</v>
       </c>
       <c r="G4" s="2">
         <v>2.0249769539078155</v>
@@ -577,7 +577,7 @@
         <v>5</v>
       </c>
       <c r="F5">
-        <v>1.9740791583166333</v>
+        <v>2.003769539078156</v>
       </c>
       <c r="G5" s="2">
         <v>2.003769539078156</v>
@@ -607,7 +607,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>1.9453867735470942</v>
+        <v>1.9788196392785571</v>
       </c>
       <c r="G6" s="2">
         <v>1.9788196392785571</v>
@@ -637,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>1.9730811623246494</v>
+        <v>1.9810651302605213</v>
       </c>
       <c r="G7" s="2">
         <v>1.9810651302605213</v>
@@ -667,7 +667,7 @@
         <v>5</v>
       </c>
       <c r="F8">
-        <v>2.0566633266533065</v>
+        <v>2.1377505010020039</v>
       </c>
       <c r="G8" s="2">
         <v>2.1377505010020039</v>
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="F9">
-        <v>1.9710851703406813</v>
+        <v>2.0214839679358718</v>
       </c>
       <c r="G9" s="2">
         <v>2.0214839679358718</v>
@@ -757,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="F11">
-        <v>1.9655961923847696</v>
+        <v>2.0007755511022038</v>
       </c>
       <c r="G11" s="2">
         <v>2.0007755511022038</v>
@@ -787,7 +787,7 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <v>2.136503006012024</v>
+        <v>2.052</v>
       </c>
       <c r="G12" s="2">
         <v>2.052</v>
@@ -817,7 +817,7 @@
         <v>5</v>
       </c>
       <c r="F13">
-        <v>1.9618537074148297</v>
+        <v>2.0082605210420841</v>
       </c>
       <c r="G13" s="2">
         <v>2.0082605210420841</v>
@@ -847,7 +847,7 @@
         <v>5</v>
       </c>
       <c r="F14">
-        <v>2.0120030060120242</v>
+        <v>2.0930901803607211</v>
       </c>
       <c r="G14" s="2">
         <v>2.0930901803607211</v>
@@ -877,7 +877,7 @@
         <v>5</v>
       </c>
       <c r="F15">
-        <v>1.9980310621242483</v>
+        <v>2.0601563126252507</v>
       </c>
       <c r="G15" s="2">
         <v>2.0601563126252507</v>
@@ -907,7 +907,7 @@
         <v>5</v>
       </c>
       <c r="F16">
-        <v>1.9932905811623245</v>
+        <v>2.0476813627254509</v>
       </c>
       <c r="G16" s="2">
         <v>2.0476813627254509</v>
@@ -937,7 +937,7 @@
         <v>5</v>
       </c>
       <c r="F17">
-        <v>2.0326044947036932</v>
+        <v>2.0481803607214428</v>
       </c>
       <c r="G17" s="2">
         <v>2.0481803607214428</v>
@@ -967,7 +967,7 @@
         <v>5</v>
       </c>
       <c r="F18">
-        <v>1.9603567134268536</v>
+        <v>2.0115040080160318</v>
       </c>
       <c r="G18" s="2">
         <v>2.0115040080160318</v>
@@ -997,7 +997,7 @@
         <v>5</v>
       </c>
       <c r="F19">
-        <v>2.0244779559118236</v>
+        <v>2.1023216432865728</v>
       </c>
       <c r="G19" s="2">
         <v>2.1023216432865728</v>
@@ -1027,7 +1027,7 @@
         <v>5</v>
       </c>
       <c r="F20">
-        <v>1.9655961923847696</v>
+        <v>1.9783206412825656</v>
       </c>
       <c r="G20" s="2">
         <v>1.9783206412825656</v>
@@ -1087,7 +1087,7 @@
         <v>50</v>
       </c>
       <c r="F22">
-        <v>1.9604138276553105</v>
+        <v>1.9906452905811631</v>
       </c>
       <c r="G22" s="2">
         <v>1.9906452905811631</v>
@@ -1117,7 +1117,7 @@
         <v>50</v>
       </c>
       <c r="F23">
-        <v>1.947037074148297</v>
+        <v>1.9935881763527055</v>
       </c>
       <c r="G23" s="2">
         <v>1.9935881763527055</v>
@@ -1147,7 +1147,7 @@
         <v>50</v>
       </c>
       <c r="F24">
-        <v>1.956935871743487</v>
+        <v>1.9911803607214438</v>
       </c>
       <c r="G24" s="2">
         <v>1.9911803607214438</v>
@@ -1177,7 +1177,7 @@
         <v>50</v>
       </c>
       <c r="F25">
-        <v>1.9612164328657316</v>
+        <v>2.0045571142284575</v>
       </c>
       <c r="G25" s="2">
         <v>2.0045571142284575</v>
@@ -1207,7 +1207,7 @@
         <v>50</v>
       </c>
       <c r="F26">
-        <v>1.9662995991983969</v>
+        <v>1.9831543086172354</v>
       </c>
       <c r="G26" s="2">
         <v>1.9831543086172354</v>
@@ -1237,7 +1237,7 @@
         <v>50</v>
       </c>
       <c r="F27">
-        <v>1.9671022044088176</v>
+        <v>1.991715430861724</v>
       </c>
       <c r="G27" s="2">
         <v>1.991715430861724</v>
@@ -1267,7 +1267,7 @@
         <v>50</v>
       </c>
       <c r="F28">
-        <v>1.9272394789579161</v>
+        <v>1.9515851703406801</v>
       </c>
       <c r="G28" s="2">
         <v>1.9515851703406801</v>
@@ -1297,7 +1297,7 @@
         <v>50</v>
       </c>
       <c r="F29">
-        <v>1.986899799599199</v>
+        <v>2.0446873747494987</v>
       </c>
       <c r="G29" s="2">
         <v>2.0446873747494987</v>
@@ -1327,7 +1327,7 @@
         <v>50</v>
       </c>
       <c r="F30">
-        <v>2.0050921843687384</v>
+        <v>2.083212424849699</v>
       </c>
       <c r="G30" s="2">
         <v>2.083212424849699</v>
@@ -1357,7 +1357,7 @@
         <v>50</v>
       </c>
       <c r="F31">
-        <v>1.9566683366733468</v>
+        <v>2.0026843687374751</v>
       </c>
       <c r="G31" s="2">
         <v>2.0026843687374751</v>
@@ -1387,7 +1387,7 @@
         <v>50</v>
       </c>
       <c r="F32">
-        <v>1.9566683366733468</v>
+        <v>2.003219438877756</v>
       </c>
       <c r="G32" s="2">
         <v>2.003219438877756</v>
@@ -1417,7 +1417,7 @@
         <v>50</v>
       </c>
       <c r="F33">
-        <v>1.9430240480961927</v>
+        <v>1.9802114228456906</v>
       </c>
       <c r="G33" s="2">
         <v>1.9802114228456906</v>
@@ -1447,7 +1447,7 @@
         <v>50</v>
       </c>
       <c r="F34">
-        <v>1.9692424849699399</v>
+        <v>1.9834218436873752</v>
       </c>
       <c r="G34" s="2">
         <v>1.9834218436873752</v>
@@ -1477,7 +1477,7 @@
         <v>50</v>
       </c>
       <c r="F35">
-        <v>1.9443617234468944</v>
+        <v>1.993588176352705</v>
       </c>
       <c r="G35" s="2">
         <v>1.993588176352705</v>
@@ -1507,7 +1507,7 @@
         <v>50</v>
       </c>
       <c r="F36">
-        <v>1.9486422845691387</v>
+        <v>1.9842244488977951</v>
       </c>
       <c r="G36" s="2">
         <v>1.9842244488977951</v>
@@ -1537,7 +1537,7 @@
         <v>50</v>
       </c>
       <c r="F37">
-        <v>1.9593436873747498</v>
+        <v>2.0053597194388781</v>
       </c>
       <c r="G37" s="2">
         <v>2.0053597194388781</v>
@@ -1567,7 +1567,7 @@
         <v>50</v>
       </c>
       <c r="F38">
-        <v>1.9775360721442887</v>
+        <v>2.0141883767535065</v>
       </c>
       <c r="G38" s="2">
         <v>2.0141883767535065</v>
@@ -1597,7 +1597,7 @@
         <v>50</v>
       </c>
       <c r="F39">
-        <v>2.0267625250500991</v>
+        <v>2.110768537074148</v>
       </c>
       <c r="G39" s="2">
         <v>2.110768537074148</v>
@@ -1627,7 +1627,7 @@
         <v>50</v>
       </c>
       <c r="F40">
-        <v>1.9374058116232467</v>
+        <v>1.9654969939879767</v>
       </c>
       <c r="G40" s="2">
         <v>1.9654969939879767</v>
@@ -1687,7 +1687,7 @@
         <v>500</v>
       </c>
       <c r="F42">
-        <v>1.9484509018036071</v>
+        <v>1.9865430861723448</v>
       </c>
       <c r="G42" s="2">
         <v>1.9865430861723448</v>
@@ -1717,7 +1717,7 @@
         <v>500</v>
       </c>
       <c r="F43">
-        <v>1.9519138276553107</v>
+        <v>1.9862545090180364</v>
       </c>
       <c r="G43" s="2">
         <v>1.9862545090180364</v>
@@ -1747,7 +1747,7 @@
         <v>500</v>
       </c>
       <c r="F44">
-        <v>1.9481623246492985</v>
+        <v>2.032426853707415</v>
       </c>
       <c r="G44" s="2">
         <v>2.032426853707415</v>
@@ -1777,7 +1777,7 @@
         <v>500</v>
       </c>
       <c r="F45">
-        <v>1.9510480961923848</v>
+        <v>1.9790400801603207</v>
       </c>
       <c r="G45" s="2">
         <v>1.9790400801603207</v>
@@ -1807,7 +1807,7 @@
         <v>500</v>
       </c>
       <c r="F46">
-        <v>1.9429679358717438</v>
+        <v>1.9738456913827653</v>
       </c>
       <c r="G46" s="2">
         <v>1.9738456913827653</v>
@@ -1837,7 +1837,7 @@
         <v>500</v>
       </c>
       <c r="F47">
-        <v>1.9752885771543085</v>
+        <v>1.9879859719438884</v>
       </c>
       <c r="G47" s="2">
         <v>1.9879859719438884</v>
@@ -1867,7 +1867,7 @@
         <v>500</v>
       </c>
       <c r="F48">
-        <v>1.9444108216432869</v>
+        <v>1.9770200400801605</v>
       </c>
       <c r="G48" s="2">
         <v>1.9770200400801605</v>
@@ -1897,7 +1897,7 @@
         <v>500</v>
       </c>
       <c r="F49">
-        <v>1.9891402805611225</v>
+        <v>2.065324649298597</v>
       </c>
       <c r="G49" s="2">
         <v>2.065324649298597</v>
@@ -1927,7 +1927,7 @@
         <v>500</v>
       </c>
       <c r="F50">
-        <v>1.9475851703406817</v>
+        <v>1.9885631262525043</v>
       </c>
       <c r="G50" s="2">
         <v>1.9885631262525043</v>
@@ -1957,7 +1957,7 @@
         <v>500</v>
       </c>
       <c r="F51">
-        <v>1.9674969939879761</v>
+        <v>1.9963547094188376</v>
       </c>
       <c r="G51" s="2">
         <v>1.9963547094188376</v>
@@ -1987,7 +1987,7 @@
         <v>500</v>
       </c>
       <c r="F52">
-        <v>1.9400821643286574</v>
+        <v>1.9914488977955913</v>
       </c>
       <c r="G52" s="2">
         <v>1.9914488977955913</v>
@@ -2017,7 +2017,7 @@
         <v>500</v>
       </c>
       <c r="F53">
-        <v>1.9585511022044089</v>
+        <v>1.9969318637274549</v>
       </c>
       <c r="G53" s="2">
         <v>1.9969318637274549</v>
@@ -2047,7 +2047,7 @@
         <v>500</v>
       </c>
       <c r="F54">
-        <v>1.9718256513026051</v>
+        <v>1.9917374749498999</v>
       </c>
       <c r="G54" s="2">
         <v>1.9917374749498999</v>
@@ -2077,7 +2077,7 @@
         <v>500</v>
       </c>
       <c r="F55">
-        <v>1.9198817635270542</v>
+        <v>1.9703827655310626</v>
       </c>
       <c r="G55" s="2">
         <v>1.9703827655310626</v>
@@ -2107,7 +2107,7 @@
         <v>500</v>
       </c>
       <c r="F56">
-        <v>1.9787515030060123</v>
+        <v>2.0067434869739476</v>
       </c>
       <c r="G56" s="2">
         <v>2.0067434869739476</v>
@@ -2137,7 +2137,7 @@
         <v>500</v>
       </c>
       <c r="F57">
-        <v>1.9322905811623241</v>
+        <v>1.9911603206412829</v>
       </c>
       <c r="G57" s="2">
         <v>1.9911603206412829</v>
@@ -2167,7 +2167,7 @@
         <v>500</v>
       </c>
       <c r="F58">
-        <v>1.9611482965931868</v>
+        <v>2.0044348697394789</v>
       </c>
       <c r="G58" s="2">
         <v>2.0044348697394789</v>
@@ -2197,7 +2197,7 @@
         <v>500</v>
       </c>
       <c r="F59">
-        <v>1.9276733466933866</v>
+        <v>1.9724028056112226</v>
       </c>
       <c r="G59" s="2">
         <v>1.9724028056112226</v>
@@ -2227,7 +2227,7 @@
         <v>500</v>
       </c>
       <c r="F60">
-        <v>1.9559539078156312</v>
+        <v>1.9784629258517035</v>
       </c>
       <c r="G60" s="2">
         <v>1.9784629258517035</v>
@@ -2257,7 +2257,7 @@
         <v>500</v>
       </c>
       <c r="F61">
-        <v>2.0053006012024044</v>
+        <v>2.0840821643286578</v>
       </c>
       <c r="G61" s="2">
         <v>2.0840821643286578</v>
@@ -2287,7 +2287,7 @@
         <v>5</v>
       </c>
       <c r="F62">
-        <v>2.0159679358717426</v>
+        <v>2.0266392785571137</v>
       </c>
       <c r="G62" s="2">
         <v>2.0266392785571137</v>
@@ -2317,7 +2317,7 @@
         <v>5</v>
       </c>
       <c r="F63">
-        <v>2.0120100200400799</v>
+        <v>2.0216292585170348</v>
       </c>
       <c r="G63" s="2">
         <v>2.0216292585170348</v>
@@ -2347,7 +2347,7 @@
         <v>5</v>
       </c>
       <c r="F64">
-        <v>2.0117595190380761</v>
+        <v>2.021779559118237</v>
       </c>
       <c r="G64" s="2">
         <v>2.021779559118237</v>
@@ -2377,7 +2377,7 @@
         <v>5</v>
       </c>
       <c r="F65">
-        <v>2.0090040080160314</v>
+        <v>2.0187234468937874</v>
       </c>
       <c r="G65" s="2">
         <v>2.0187234468937874</v>
@@ -2407,7 +2407,7 @@
         <v>5</v>
       </c>
       <c r="F66">
-        <v>2.0156172344689374</v>
+        <v>2.0252364729458914</v>
       </c>
       <c r="G66" s="2">
         <v>2.0252364729458914</v>
@@ -2437,7 +2437,7 @@
         <v>5</v>
       </c>
       <c r="F67">
-        <v>2.0073006012024051</v>
+        <v>2.0180220440881764</v>
       </c>
       <c r="G67" s="2">
         <v>2.0180220440881764</v>
@@ -2467,7 +2467,7 @@
         <v>5</v>
       </c>
       <c r="F68">
-        <v>2.0117094188376754</v>
+        <v>2.0216292585170343</v>
       </c>
       <c r="G68" s="2">
         <v>2.0216292585170343</v>
@@ -2497,7 +2497,7 @@
         <v>5</v>
       </c>
       <c r="F69">
-        <v>2.0143146292585175</v>
+        <v>2.0230821643286578</v>
       </c>
       <c r="G69" s="2">
         <v>2.0230821643286578</v>
@@ -2557,7 +2557,7 @@
         <v>5</v>
       </c>
       <c r="F71">
-        <v>2.0143146292585175</v>
+        <v>2.0266893787575149</v>
       </c>
       <c r="G71" s="2">
         <v>2.0266893787575149</v>
@@ -2587,7 +2587,7 @@
         <v>5</v>
       </c>
       <c r="F72">
-        <v>2.018773547094189</v>
+        <v>2.0284929859719445</v>
       </c>
       <c r="G72" s="2">
         <v>2.0284929859719445</v>
@@ -2617,7 +2617,7 @@
         <v>5</v>
       </c>
       <c r="F73">
-        <v>2.0129118236472947</v>
+        <v>2.0244348697394789</v>
       </c>
       <c r="G73" s="2">
         <v>2.0244348697394789</v>
@@ -2647,7 +2647,7 @@
         <v>5</v>
       </c>
       <c r="F74">
-        <v>2.0139639278557118</v>
+        <v>2.0234328657314626</v>
       </c>
       <c r="G74" s="2">
         <v>2.0234328657314626</v>
@@ -2677,7 +2677,7 @@
         <v>5</v>
       </c>
       <c r="F75">
-        <v>2.0225811623246486</v>
+        <v>2.03019639278557</v>
       </c>
       <c r="G75" s="2">
         <v>2.03019639278557</v>
@@ -2707,7 +2707,7 @@
         <v>5</v>
       </c>
       <c r="F76">
-        <v>2.0088537074148292</v>
+        <v>2.0206773547094183</v>
       </c>
       <c r="G76" s="2">
         <v>2.0206773547094183</v>
@@ -2797,7 +2797,7 @@
         <v>5</v>
       </c>
       <c r="F79">
-        <v>2.0318997995991985</v>
+        <v>2.032</v>
       </c>
       <c r="G79" s="2">
         <v>2.032</v>
@@ -2827,7 +2827,7 @@
         <v>5</v>
       </c>
       <c r="F80">
-        <v>2.0155170340681359</v>
+        <v>2.025687374749499</v>
       </c>
       <c r="G80" s="2">
         <v>2.025687374749499</v>
@@ -2887,7 +2887,7 @@
         <v>50</v>
       </c>
       <c r="F82">
-        <v>1.9349098196392787</v>
+        <v>1.9431342685370745</v>
       </c>
       <c r="G82" s="2">
         <v>1.9431342685370745</v>
@@ -2917,7 +2917,7 @@
         <v>50</v>
       </c>
       <c r="F83">
-        <v>1.9380320641282562</v>
+        <v>1.9457995991983963</v>
       </c>
       <c r="G83" s="2">
         <v>1.9457995991983963</v>
@@ -2947,7 +2947,7 @@
         <v>50</v>
       </c>
       <c r="F84">
-        <v>1.9371943887775553</v>
+        <v>1.9461042084168336</v>
       </c>
       <c r="G84" s="2">
         <v>1.9461042084168336</v>
@@ -2977,7 +2977,7 @@
         <v>50</v>
       </c>
       <c r="F85">
-        <v>1.9238677354709419</v>
+        <v>1.9306452905811622</v>
       </c>
       <c r="G85" s="2">
         <v>1.9306452905811622</v>
@@ -3007,7 +3007,7 @@
         <v>50</v>
       </c>
       <c r="F86">
-        <v>1.9394028056112222</v>
+        <v>1.946104208416833</v>
       </c>
       <c r="G86" s="2">
         <v>1.946104208416833</v>
@@ -3037,7 +3037,7 @@
         <v>50</v>
       </c>
       <c r="F87">
-        <v>1.929503006012024</v>
+        <v>1.9383366733466938</v>
       </c>
       <c r="G87" s="2">
         <v>1.9383366733466938</v>
@@ -3067,7 +3067,7 @@
         <v>50</v>
       </c>
       <c r="F88">
-        <v>1.9277515030060119</v>
+        <v>1.9346813627254507</v>
       </c>
       <c r="G88" s="2">
         <v>1.9346813627254507</v>
@@ -3097,7 +3097,7 @@
         <v>50</v>
       </c>
       <c r="F89">
-        <v>1.9392505010020038</v>
+        <v>1.9483887775551103</v>
       </c>
       <c r="G89" s="2">
         <v>1.9483887775551103</v>
@@ -3127,7 +3127,7 @@
         <v>50</v>
       </c>
       <c r="F90">
-        <v>1.9530340681362723</v>
+        <v>1.9579078156312628</v>
       </c>
       <c r="G90" s="2">
         <v>1.9579078156312628</v>
@@ -3157,7 +3157,7 @@
         <v>50</v>
       </c>
       <c r="F91">
-        <v>1.9359759519038076</v>
+        <v>1.9532625250501001</v>
       </c>
       <c r="G91" s="2">
         <v>1.9532625250501001</v>
@@ -3187,7 +3187,7 @@
         <v>50</v>
       </c>
       <c r="F92">
-        <v>1.945418837675351</v>
+        <v>1.9533386773547097</v>
       </c>
       <c r="G92" s="2">
         <v>1.9533386773547097</v>
@@ -3217,7 +3217,7 @@
         <v>50</v>
       </c>
       <c r="F93">
-        <v>1.9336913827655311</v>
+        <v>1.9403166332665327</v>
       </c>
       <c r="G93" s="2">
         <v>1.9403166332665327</v>
@@ -3247,7 +3247,7 @@
         <v>50</v>
       </c>
       <c r="F94">
-        <v>1.93376753507014</v>
+        <v>1.9430581162324649</v>
       </c>
       <c r="G94" s="2">
         <v>1.9430581162324649</v>
@@ -3277,7 +3277,7 @@
         <v>50</v>
       </c>
       <c r="F95">
-        <v>1.9426773547094187</v>
+        <v>1.9511302605210419</v>
       </c>
       <c r="G95" s="2">
         <v>1.9511302605210419</v>
@@ -3307,7 +3307,7 @@
         <v>50</v>
       </c>
       <c r="F96">
-        <v>1.9286653306613226</v>
+        <v>1.9462565130260518</v>
       </c>
       <c r="G96" s="2">
         <v>1.9462565130260518</v>
@@ -3337,7 +3337,7 @@
         <v>50</v>
       </c>
       <c r="F97">
-        <v>1.9503687374749497</v>
+        <v>1.9611062124248497</v>
       </c>
       <c r="G97" s="2">
         <v>1.9611062124248497</v>
@@ -3367,7 +3367,7 @@
         <v>50</v>
       </c>
       <c r="F98">
-        <v>1.9397835671342685</v>
+        <v>1.952805611222445</v>
       </c>
       <c r="G98" s="2">
         <v>1.952805611222445</v>
@@ -3397,7 +3397,7 @@
         <v>50</v>
       </c>
       <c r="F99">
-        <v>1.9467895791583163</v>
+        <v>1.9553947895791586</v>
       </c>
       <c r="G99" s="2">
         <v>1.9553947895791586</v>
@@ -3427,7 +3427,7 @@
         <v>50</v>
       </c>
       <c r="F100">
-        <v>1.9414589178356714</v>
+        <v>1.948921843687375</v>
       </c>
       <c r="G100" s="2">
         <v>1.948921843687375</v>
@@ -3487,7 +3487,7 @@
         <v>500</v>
       </c>
       <c r="F102">
-        <v>1.9723246492985971</v>
+        <v>1.9900701402805612</v>
       </c>
       <c r="G102" s="2">
         <v>1.9900701402805612</v>
@@ -3517,7 +3517,7 @@
         <v>500</v>
       </c>
       <c r="F103">
-        <v>1.9588997995991986</v>
+        <v>1.9693927855711428</v>
       </c>
       <c r="G103" s="2">
         <v>1.9693927855711428</v>
@@ -3547,7 +3547,7 @@
         <v>500</v>
       </c>
       <c r="F104">
-        <v>1.9681583166332668</v>
+        <v>1.98898997995992</v>
       </c>
       <c r="G104" s="2">
         <v>1.98898997995992</v>
@@ -3577,7 +3577,7 @@
         <v>500</v>
       </c>
       <c r="F105">
-        <v>1.9664609218436873</v>
+        <v>1.9812745490981962</v>
       </c>
       <c r="G105" s="2">
         <v>1.9812745490981962</v>
@@ -3607,7 +3607,7 @@
         <v>500</v>
       </c>
       <c r="F106">
-        <v>1.9562765531062123</v>
+        <v>1.9661523046092186</v>
       </c>
       <c r="G106" s="2">
         <v>1.9661523046092186</v>
@@ -3637,7 +3637,7 @@
         <v>500</v>
       </c>
       <c r="F107">
-        <v>1.9527274549098197</v>
+        <v>1.9584368737474953</v>
       </c>
       <c r="G107" s="2">
         <v>1.9584368737474953</v>
@@ -3667,7 +3667,7 @@
         <v>500</v>
       </c>
       <c r="F108">
-        <v>1.9607515030060121</v>
+        <v>1.9706272545090184</v>
       </c>
       <c r="G108" s="2">
         <v>1.9706272545090184</v>
@@ -3697,7 +3697,7 @@
         <v>500</v>
       </c>
       <c r="F109">
-        <v>1.9627575150300602</v>
+        <v>1.9771082164328657</v>
       </c>
       <c r="G109" s="2">
         <v>1.9771082164328657</v>
@@ -3727,7 +3727,7 @@
         <v>500</v>
       </c>
       <c r="F110">
-        <v>1.9627575150300602</v>
+        <v>1.9769539078156311</v>
       </c>
       <c r="G110" s="2">
         <v>1.9769539078156311</v>
@@ -3757,7 +3757,7 @@
         <v>500</v>
       </c>
       <c r="F111">
-        <v>1.9859038076152304</v>
+        <v>2.0116733466933865</v>
       </c>
       <c r="G111" s="2">
         <v>2.0116733466933865</v>
@@ -3787,7 +3787,7 @@
         <v>500</v>
       </c>
       <c r="F112">
-        <v>1.9720160320641285</v>
+        <v>1.9916132264529056</v>
       </c>
       <c r="G112" s="2">
         <v>1.9916132264529056</v>
@@ -3817,7 +3817,7 @@
         <v>500</v>
       </c>
       <c r="F113">
-        <v>1.9842064128256514</v>
+        <v>1.9996372745490987</v>
       </c>
       <c r="G113" s="2">
         <v>1.9996372745490987</v>
@@ -3847,7 +3847,7 @@
         <v>500</v>
       </c>
       <c r="F114">
-        <v>1.9630661322645291</v>
+        <v>1.9730961923847696</v>
       </c>
       <c r="G114" s="2">
         <v>1.9730961923847696</v>
@@ -3877,7 +3877,7 @@
         <v>500</v>
       </c>
       <c r="F115">
-        <v>1.9596713426853709</v>
+        <v>1.9720160320641289</v>
       </c>
       <c r="G115" s="2">
         <v>1.9720160320641289</v>
@@ -3907,7 +3907,7 @@
         <v>500</v>
       </c>
       <c r="F116">
-        <v>1.9602885771543086</v>
+        <v>1.9695470941883773</v>
       </c>
       <c r="G116" s="2">
         <v>1.9695470941883773</v>
@@ -3937,7 +3937,7 @@
         <v>500</v>
       </c>
       <c r="F117">
-        <v>1.9592084168336672</v>
+        <v>1.9690841683366735</v>
       </c>
       <c r="G117" s="2">
         <v>1.9690841683366735</v>
@@ -3967,7 +3967,7 @@
         <v>500</v>
       </c>
       <c r="F118">
-        <v>1.9840521042084169</v>
+        <v>2.0113647294589176</v>
       </c>
       <c r="G118" s="2">
         <v>2.0113647294589176</v>
@@ -3997,7 +3997,7 @@
         <v>500</v>
       </c>
       <c r="F119">
-        <v>1.9892985971943891</v>
+        <v>2.0024148296593185</v>
       </c>
       <c r="G119" s="2">
         <v>2.0024148296593185</v>
@@ -4027,7 +4027,7 @@
         <v>500</v>
       </c>
       <c r="F120">
-        <v>1.9707815631262526</v>
+        <v>1.9852865731462932</v>
       </c>
       <c r="G120" s="2">
         <v>1.9852865731462932</v>
@@ -4057,7 +4057,7 @@
         <v>500</v>
       </c>
       <c r="F121">
-        <v>2.0374428857715432</v>
+        <v>2.0828096192384771</v>
       </c>
       <c r="G121" s="2">
         <v>2.0828096192384771</v>
